--- a/Data/Pertussis case year age.xlsx
+++ b/Data/Pertussis case year age.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://6kmwxn-my.sharepoint.com/personal/kanggle_lkg1116_onmicrosoft_com/Documents/XMU/likangguo/2024/06 pertussis/PertussisIncidence/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="911" documentId="13_ncr:1_{C46EE4FA-0A9A-4805-AEAC-250B1BF7A9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF53E39C-DCF2-456B-BB90-07AED17A369E}"/>
+  <xr:revisionPtr revIDLastSave="924" documentId="13_ncr:1_{C46EE4FA-0A9A-4805-AEAC-250B1BF7A9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{665AD5CD-C81E-4842-8FAD-5FC053E7AD47}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AU" sheetId="1" r:id="rId1"/>
@@ -48,10 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="93">
-  <si>
-    <t>Age Group</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
   <si>
     <t>00-04</t>
   </si>
@@ -117,10 +114,6 @@
   <si>
     <t>15+</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Age Group</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>01-04</t>
@@ -151,10 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>85+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -335,9 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
     <t>20-29</t>
   </si>
   <si>
@@ -359,32 +345,33 @@
     <t>80+</t>
   </si>
   <si>
+    <t>15-24</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65+</t>
+  </si>
+  <si>
+    <t>05-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>15-24</t>
-  </si>
-  <si>
-    <t>25-34</t>
-  </si>
-  <si>
-    <t>35-44</t>
-  </si>
-  <si>
-    <t>45-54</t>
-  </si>
-  <si>
-    <t>55-64</t>
-  </si>
-  <si>
-    <t>65+</t>
-  </si>
-  <si>
-    <t>05-14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00-04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +463,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -515,9 +502,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
@@ -544,6 +528,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -845,9 +833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -855,65 +841,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="T1" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -1485,9 +1471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E2D9B1-1E5E-45A5-B501-433EB35DEFF4}">
   <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:AA1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1497,95 +1481,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
+      <c r="A1" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="O1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="AD1" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -2143,6 +2127,9 @@
       <c r="AC8">
         <v>3</v>
       </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -2220,6 +2207,9 @@
       <c r="AA9">
         <v>2</v>
       </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
       <c r="AC9">
         <v>2</v>
       </c>
@@ -2300,8 +2290,17 @@
       <c r="Z10">
         <v>2</v>
       </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
       <c r="AB10">
         <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2315,9 +2314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BC46BA-B415-4BA1-8C07-32B789ED57F5}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2325,35 +2322,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>30</v>
+      <c r="A1" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2505,24 +2502,24 @@
       <c r="A7">
         <v>2020</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <f>30+15+5</f>
         <v>50</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>49</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>222</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>467</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19">
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18">
         <v>2342</v>
       </c>
     </row>
@@ -2530,24 +2527,24 @@
       <c r="A8">
         <v>2021</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <f>1+1+0</f>
         <v>2</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <v>3</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>2</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>3</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19">
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18">
         <v>39</v>
       </c>
     </row>
@@ -2555,24 +2552,24 @@
       <c r="A9">
         <v>2022</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <f>2+3+0</f>
         <v>5</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <v>11</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>3</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>3</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19">
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18">
         <v>47</v>
       </c>
     </row>
@@ -2580,24 +2577,24 @@
       <c r="A10">
         <v>2023</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <f>48+23+25</f>
         <v>96</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <v>53</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>79</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>177</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19">
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18">
         <v>453</v>
       </c>
     </row>
@@ -2612,9 +2609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACAAF4F-F540-404D-8EBE-0EF1E094777F}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A11:XFD27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2623,44 +2618,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="E1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -2936,9 +2931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4C6641-471C-48E4-AB1A-90459E3398B2}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A11:XFD24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2946,41 +2939,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>22</v>
+      <c r="A1" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3336,39 +3329,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C84F5ED-A6BB-4026-BA10-F0FD0D737D80}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
         <v>84</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>85</v>
-      </c>
-      <c r="E1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3555,67 +3546,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A633E54-D5CF-4061-865D-7F1B10E137A1}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>76</v>
+      <c r="A1" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="Q1" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="20">
+      <c r="A2" s="19">
         <v>2022</v>
       </c>
       <c r="B2">
@@ -3668,7 +3657,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
+      <c r="A3" s="19">
         <v>2021</v>
       </c>
       <c r="B3">
@@ -3721,7 +3710,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>2020</v>
       </c>
       <c r="B4">
@@ -3774,7 +3763,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>2019</v>
       </c>
       <c r="B5">
@@ -3827,7 +3816,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>2018</v>
       </c>
       <c r="B6">
@@ -3889,389 +3878,387 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336180FD-EF98-40EB-9484-811A5E7BC980}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="20">
+      <c r="A2" s="19">
         <v>2023</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="20">
         <v>25.116</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="20">
         <v>8.9700000000000006</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="20">
         <v>18.077999999999999</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="20">
         <v>12.005999999999998</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="20">
         <v>11.040000000000001</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="20">
         <v>8.9700000000000006</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="20">
         <v>16.007999999999999</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="20">
         <v>20.009999999999998</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="20">
         <v>8.0039999999999996</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="20">
         <v>4.968</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="20">
         <v>4.0019999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
+      <c r="A3" s="19">
         <v>2022</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <v>1.8359999999999999</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="20">
         <v>0</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <v>0.91199999999999992</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="20">
         <v>1.8359999999999999</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="20">
         <v>0.91199999999999992</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="20">
         <v>1.8359999999999999</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="20">
         <v>0.91199999999999992</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="20">
         <v>1.8359999999999999</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="20">
         <v>0.91199999999999992</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="20">
         <v>0</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="20">
         <v>0.91199999999999992</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>2021</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>1.9909999999999999</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>0.99</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>0</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <v>0.99</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <v>0.99</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="20">
         <v>0</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="20">
         <v>2.992</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="20">
         <v>0.99</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="20">
         <v>0</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="20">
         <v>0.99</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="20">
         <v>0.99</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>2020</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>43.847000000000001</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>23.940999999999999</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>33.893999999999998</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>28.782999999999998</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>19.905999999999999</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <v>28.782999999999998</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <v>43.847000000000001</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="20">
         <v>18.830000000000002</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="20">
         <v>9.9529999999999994</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="20">
         <v>7.8010000000000002</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="20">
         <v>7.8010000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>2019</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>105.57000000000001</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>38.318000000000005</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>84.456000000000003</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>68.816000000000003</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>107.91600000000001</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>81.328000000000003</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <v>135.286</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="20">
         <v>79.763999999999996</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="20">
         <v>34.408000000000001</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="20">
         <v>32.844000000000001</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="20">
         <v>8.6020000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>2018</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>127.84699999999999</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>56.902999999999999</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>91.635999999999996</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>39.905999999999999</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>81.290000000000006</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="20">
         <v>88.679999999999993</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <v>119.718</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="20">
         <v>55.424999999999997</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="20">
         <v>29.560000000000002</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="20">
         <v>29.560000000000002</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="20">
         <v>14.780000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>2017</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <v>132.82500000000002</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>46.690000000000005</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>109.48</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>57.959999999999994</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>82.914999999999992</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>90.965000000000003</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="20">
         <v>124.77500000000001</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="20">
         <v>64.400000000000006</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="20">
         <v>38.64</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="20">
         <v>38.64</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="20">
         <v>14.489999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>2016</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>126.973</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>46.851000000000006</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>72.652999999999992</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>61.789000000000001</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <v>84.875</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <v>79.442999999999998</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="20">
         <v>91.665000000000006</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="20">
         <v>41.418999999999997</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="20">
         <v>33.950000000000003</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="20">
         <v>29.875999999999998</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="20">
         <v>6.79</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>2015</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <v>127.23299999999999</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>37.386000000000003</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>42.812999999999995</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <v>61.505999999999993</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="20">
         <v>76.581000000000003</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="20">
         <v>74.772000000000006</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="20">
         <v>79.596000000000004</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="20">
         <v>37.386000000000003</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="20">
         <v>36.783000000000001</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="20">
         <v>18.693000000000001</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="20">
         <v>6.633</v>
       </c>
     </row>
